--- a/res/features.xlsx
+++ b/res/features.xlsx
@@ -2,19 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
-  <workbookPr/>
+  <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shenda/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shenda/Movies/Github/PIC/res/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="17540" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="features" sheetId="1" r:id="rId1"/>
+    <sheet name="去除后" sheetId="2" r:id="rId2"/>
+    <sheet name="临床常规" sheetId="3" r:id="rId3"/>
+    <sheet name="top_29" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="122">
   <si>
     <t>col</t>
   </si>
@@ -369,6 +372,38 @@
   </si>
   <si>
     <t>单核细胞,Monocytes,Blood,Hematology,742-7</t>
+  </si>
+  <si>
+    <t>人口学资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命体征</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外周血象CBC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凝血功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血气分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单核细胞,Monocytes,Blood,Hematology,742-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血清电解质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血糖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -378,10 +413,32 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -404,15 +461,83 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="35">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -468,7 +593,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -503,7 +628,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -690,8 +815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G828"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A50" zoomScale="136" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2754,6 +2879,5329 @@
   <sortState ref="A2:G828">
     <sortCondition ref="B1"/>
   </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G820"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="66.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>7.6988372988513798E-2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2">
+        <v>6.0886303210072401E-3</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.32738493568295002</v>
+      </c>
+      <c r="E3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5.6184414648212397E-3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.32723622574168998</v>
+      </c>
+      <c r="E4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2">
+        <v>6.06618593919892E-3</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.32723622574168998</v>
+      </c>
+      <c r="E5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="2">
+        <v>4.2467048433447799E-3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.44783998810320402</v>
+      </c>
+      <c r="E6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4.6358700784589696E-3</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.44783998810320402</v>
+      </c>
+      <c r="E7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="2">
+        <v>4.6797820481302996E-3</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.39943490222321298</v>
+      </c>
+      <c r="E8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="2">
+        <v>5.2968983409796104E-3</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.39943490222321298</v>
+      </c>
+      <c r="E9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2">
+        <v>5.4632200339983601E-3</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.39943490222321298</v>
+      </c>
+      <c r="E10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2">
+        <v>6.9394548216444802E-3</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.39943490222321298</v>
+      </c>
+      <c r="E11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>61</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="2">
+        <v>3.88426881014357E-3</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.151163655290356</v>
+      </c>
+      <c r="E12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>64</v>
+      </c>
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="2">
+        <v>3.8167408024446501E-3</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.14818945646516399</v>
+      </c>
+      <c r="E13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="2">
+        <v>4.0569970663509002E-3</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.18172354821919801</v>
+      </c>
+      <c r="E14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>49</v>
+      </c>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="2">
+        <v>4.2349802523598502E-3</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.18172354821919801</v>
+      </c>
+      <c r="E15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="2">
+        <v>3.9002788124988799E-3</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.15235333482043201</v>
+      </c>
+      <c r="E16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>56</v>
+      </c>
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="2">
+        <v>3.9506525216684799E-3</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.15235333482043201</v>
+      </c>
+      <c r="E17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>57</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="2">
+        <v>3.9100771283853003E-3</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.14841252137705399</v>
+      </c>
+      <c r="E18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="2">
+        <v>4.8106244528216997E-3</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.14818945646516399</v>
+      </c>
+      <c r="E19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>42</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="2">
+        <v>4.42048354370091E-3</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.14818945646516399</v>
+      </c>
+      <c r="E20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>63</v>
+      </c>
+      <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="2">
+        <v>3.82237715303452E-3</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.148115101494534</v>
+      </c>
+      <c r="E21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>37</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="2">
+        <v>4.6641402100616102E-3</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.14818945646516399</v>
+      </c>
+      <c r="E22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="2">
+        <v>4.3997955582893503E-3</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.14818945646516399</v>
+      </c>
+      <c r="E23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>50</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="2">
+        <v>4.1710935145113101E-3</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.38553052271544302</v>
+      </c>
+      <c r="E24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="2">
+        <v>4.68661178478597E-3</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.38307680868465999</v>
+      </c>
+      <c r="E25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="2">
+        <v>5.02638917720955E-3</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.38307680868465999</v>
+      </c>
+      <c r="E26" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="2">
+        <v>4.8255319517849799E-3</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.38307680868465999</v>
+      </c>
+      <c r="E27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="2">
+        <v>4.7680978832997101E-3</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.38307680868465999</v>
+      </c>
+      <c r="E28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="2">
+        <v>6.1131647748971204E-3</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.34567625845787697</v>
+      </c>
+      <c r="E29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1.41775161181778E-2</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0.34567625845787697</v>
+      </c>
+      <c r="E30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="2">
+        <v>4.8079011669586499E-3</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0.82749646813889499</v>
+      </c>
+      <c r="E31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>47</v>
+      </c>
+      <c r="B32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="2">
+        <v>4.2679303129754698E-3</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0.82749646813889499</v>
+      </c>
+      <c r="E32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>26</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="2">
+        <v>4.9702140859798696E-3</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0.34523012863409902</v>
+      </c>
+      <c r="E33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>51</v>
+      </c>
+      <c r="B34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="2">
+        <v>4.1058531343130698E-3</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0.34523012863409902</v>
+      </c>
+      <c r="E34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="2">
+        <v>4.6998781680863697E-3</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0.34508141869283898</v>
+      </c>
+      <c r="E35" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>22</v>
+      </c>
+      <c r="B36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="2">
+        <v>5.1602474647022903E-3</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0.34508141869283898</v>
+      </c>
+      <c r="E36" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>10</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="2">
+        <v>6.6782732445515398E-3</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0.36575210052792001</v>
+      </c>
+      <c r="E37" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>43</v>
+      </c>
+      <c r="B38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="2">
+        <v>4.4086806431233097E-3</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0.36575210052792001</v>
+      </c>
+      <c r="E38" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>55</v>
+      </c>
+      <c r="B39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="2">
+        <v>4.0124412116128499E-3</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0.34530448360472898</v>
+      </c>
+      <c r="E39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>20</v>
+      </c>
+      <c r="B40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="2">
+        <v>5.4110878168895302E-3</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0.34530448360472898</v>
+      </c>
+      <c r="E40" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>12</v>
+      </c>
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="2">
+        <v>6.2839061047449598E-3</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0.34508141869283898</v>
+      </c>
+      <c r="E41" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>3</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="2">
+        <v>1.2709943390960401E-2</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0.349542716930626</v>
+      </c>
+      <c r="E42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>46</v>
+      </c>
+      <c r="B43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="2">
+        <v>4.2972535528377999E-3</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0.34508141869283898</v>
+      </c>
+      <c r="E43" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>18</v>
+      </c>
+      <c r="B44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="2">
+        <v>5.54877552440417E-3</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0.84266488214737101</v>
+      </c>
+      <c r="E44" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>5</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="2">
+        <v>1.08112052101069E-2</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0.345155773663469</v>
+      </c>
+      <c r="E45" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>36</v>
+      </c>
+      <c r="B46" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" s="2">
+        <v>4.6750664375130504E-3</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0.345378838575358</v>
+      </c>
+      <c r="E46" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>7</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="2">
+        <v>8.2825354811677399E-3</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0.345378838575358</v>
+      </c>
+      <c r="E47" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>45</v>
+      </c>
+      <c r="B48" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" s="2">
+        <v>4.36568584334362E-3</v>
+      </c>
+      <c r="D48" s="2">
+        <v>0.345155773663469</v>
+      </c>
+      <c r="E48" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>31</v>
+      </c>
+      <c r="B49" t="s">
+        <v>31</v>
+      </c>
+      <c r="C49" s="2">
+        <v>4.7961418423254597E-3</v>
+      </c>
+      <c r="D49" s="2">
+        <v>0.345155773663469</v>
+      </c>
+      <c r="E49" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>41</v>
+      </c>
+      <c r="B50" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" s="2">
+        <v>4.4423803430324099E-3</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0.34552754851661799</v>
+      </c>
+      <c r="E50" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>8</v>
+      </c>
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="2">
+        <v>7.0604005210429602E-3</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0.34552754851661799</v>
+      </c>
+      <c r="E51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>16</v>
+      </c>
+      <c r="B52" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="2">
+        <v>5.8711470009780199E-3</v>
+      </c>
+      <c r="D52" s="2">
+        <v>0.34589932336976698</v>
+      </c>
+      <c r="E52" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>4</v>
+      </c>
+      <c r="B53" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="2">
+        <v>1.24397275102422E-2</v>
+      </c>
+      <c r="D53" s="2">
+        <v>0.34589932336976698</v>
+      </c>
+      <c r="E53" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>24</v>
+      </c>
+      <c r="B54" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" s="2">
+        <v>5.0658504767432302E-3</v>
+      </c>
+      <c r="D54" s="2">
+        <v>0.34545319354598802</v>
+      </c>
+      <c r="E54" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>62</v>
+      </c>
+      <c r="B55" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" s="2">
+        <v>3.8496945992323498E-3</v>
+      </c>
+      <c r="D55" s="2">
+        <v>0.34582496839913701</v>
+      </c>
+      <c r="E55" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" s="2">
+        <v>4.0344900126817896E-3</v>
+      </c>
+      <c r="D56" s="2">
+        <v>0.18164919324856801</v>
+      </c>
+      <c r="E56" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>40</v>
+      </c>
+      <c r="B57" t="s">
+        <v>40</v>
+      </c>
+      <c r="C57" s="2">
+        <v>4.5696655244795896E-3</v>
+      </c>
+      <c r="D57" s="2">
+        <v>0.17302401665551301</v>
+      </c>
+    </row>
+    <row r="515" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C515" s="1"/>
+    </row>
+    <row r="516" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C516" s="1"/>
+    </row>
+    <row r="517" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C517" s="1"/>
+    </row>
+    <row r="518" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C518" s="1"/>
+    </row>
+    <row r="519" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C519" s="1"/>
+    </row>
+    <row r="520" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C520" s="1"/>
+    </row>
+    <row r="521" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C521" s="1"/>
+    </row>
+    <row r="522" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C522" s="1"/>
+    </row>
+    <row r="523" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C523" s="1"/>
+    </row>
+    <row r="524" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C524" s="1"/>
+    </row>
+    <row r="525" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C525" s="1"/>
+    </row>
+    <row r="526" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C526" s="1"/>
+    </row>
+    <row r="527" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C527" s="1"/>
+    </row>
+    <row r="528" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C528" s="1"/>
+    </row>
+    <row r="529" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C529" s="1"/>
+    </row>
+    <row r="530" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C530" s="1"/>
+    </row>
+    <row r="531" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C531" s="1"/>
+    </row>
+    <row r="532" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C532" s="1"/>
+    </row>
+    <row r="533" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C533" s="1"/>
+    </row>
+    <row r="534" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C534" s="1"/>
+    </row>
+    <row r="535" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C535" s="1"/>
+    </row>
+    <row r="536" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C536" s="1"/>
+    </row>
+    <row r="537" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C537" s="1"/>
+    </row>
+    <row r="538" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C538" s="1"/>
+    </row>
+    <row r="539" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C539" s="1"/>
+    </row>
+    <row r="540" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C540" s="1"/>
+    </row>
+    <row r="541" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C541" s="1"/>
+    </row>
+    <row r="542" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C542" s="1"/>
+    </row>
+    <row r="543" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C543" s="1"/>
+    </row>
+    <row r="544" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C544" s="1"/>
+    </row>
+    <row r="545" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C545" s="1"/>
+    </row>
+    <row r="546" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C546" s="1"/>
+    </row>
+    <row r="547" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C547" s="1"/>
+    </row>
+    <row r="548" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C548" s="1"/>
+    </row>
+    <row r="549" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C549" s="1"/>
+    </row>
+    <row r="550" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C550" s="1"/>
+    </row>
+    <row r="551" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C551" s="1"/>
+    </row>
+    <row r="552" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C552" s="1"/>
+    </row>
+    <row r="553" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C553" s="1"/>
+    </row>
+    <row r="554" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C554" s="1"/>
+    </row>
+    <row r="555" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C555" s="1"/>
+    </row>
+    <row r="556" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C556" s="1"/>
+    </row>
+    <row r="557" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C557" s="1"/>
+    </row>
+    <row r="558" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C558" s="1"/>
+    </row>
+    <row r="559" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C559" s="1"/>
+    </row>
+    <row r="560" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C560" s="1"/>
+    </row>
+    <row r="561" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C561" s="1"/>
+    </row>
+    <row r="562" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C562" s="1"/>
+    </row>
+    <row r="563" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C563" s="1"/>
+    </row>
+    <row r="564" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C564" s="1"/>
+    </row>
+    <row r="565" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C565" s="1"/>
+    </row>
+    <row r="566" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C566" s="1"/>
+    </row>
+    <row r="567" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C567" s="1"/>
+    </row>
+    <row r="568" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C568" s="1"/>
+    </row>
+    <row r="569" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C569" s="1"/>
+    </row>
+    <row r="570" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C570" s="1"/>
+    </row>
+    <row r="571" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C571" s="1"/>
+    </row>
+    <row r="572" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C572" s="1"/>
+    </row>
+    <row r="573" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C573" s="1"/>
+    </row>
+    <row r="574" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C574" s="1"/>
+    </row>
+    <row r="575" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C575" s="1"/>
+    </row>
+    <row r="576" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C576" s="1"/>
+    </row>
+    <row r="577" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C577" s="1"/>
+    </row>
+    <row r="578" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C578" s="1"/>
+    </row>
+    <row r="579" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C579" s="1"/>
+    </row>
+    <row r="580" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C580" s="1"/>
+    </row>
+    <row r="581" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C581" s="1"/>
+    </row>
+    <row r="582" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C582" s="1"/>
+    </row>
+    <row r="583" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C583" s="1"/>
+    </row>
+    <row r="584" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C584" s="1"/>
+    </row>
+    <row r="585" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C585" s="1"/>
+    </row>
+    <row r="586" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C586" s="1"/>
+    </row>
+    <row r="587" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C587" s="1"/>
+    </row>
+    <row r="588" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C588" s="1"/>
+    </row>
+    <row r="589" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C589" s="1"/>
+    </row>
+    <row r="590" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C590" s="1"/>
+    </row>
+    <row r="591" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C591" s="1"/>
+    </row>
+    <row r="592" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C592" s="1"/>
+    </row>
+    <row r="593" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C593" s="1"/>
+    </row>
+    <row r="594" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C594" s="1"/>
+    </row>
+    <row r="595" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C595" s="1"/>
+    </row>
+    <row r="596" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C596" s="1"/>
+    </row>
+    <row r="597" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C597" s="1"/>
+    </row>
+    <row r="598" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C598" s="1"/>
+    </row>
+    <row r="599" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C599" s="1"/>
+    </row>
+    <row r="600" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C600" s="1"/>
+    </row>
+    <row r="601" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C601" s="1"/>
+    </row>
+    <row r="602" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C602" s="1"/>
+    </row>
+    <row r="603" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C603" s="1"/>
+    </row>
+    <row r="604" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C604" s="1"/>
+    </row>
+    <row r="605" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C605" s="1"/>
+    </row>
+    <row r="606" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C606" s="1"/>
+    </row>
+    <row r="607" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C607" s="1"/>
+    </row>
+    <row r="608" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C608" s="1"/>
+    </row>
+    <row r="609" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C609" s="1"/>
+    </row>
+    <row r="610" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C610" s="1"/>
+    </row>
+    <row r="611" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C611" s="1"/>
+    </row>
+    <row r="612" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C612" s="1"/>
+    </row>
+    <row r="613" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C613" s="1"/>
+    </row>
+    <row r="614" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C614" s="1"/>
+    </row>
+    <row r="615" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C615" s="1"/>
+    </row>
+    <row r="616" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C616" s="1"/>
+    </row>
+    <row r="617" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C617" s="1"/>
+    </row>
+    <row r="618" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C618" s="1"/>
+    </row>
+    <row r="619" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C619" s="1"/>
+    </row>
+    <row r="620" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C620" s="1"/>
+    </row>
+    <row r="621" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C621" s="1"/>
+    </row>
+    <row r="622" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C622" s="1"/>
+    </row>
+    <row r="623" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C623" s="1"/>
+    </row>
+    <row r="624" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C624" s="1"/>
+    </row>
+    <row r="625" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C625" s="1"/>
+    </row>
+    <row r="626" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C626" s="1"/>
+    </row>
+    <row r="627" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C627" s="1"/>
+    </row>
+    <row r="628" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C628" s="1"/>
+    </row>
+    <row r="629" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C629" s="1"/>
+    </row>
+    <row r="630" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C630" s="1"/>
+    </row>
+    <row r="631" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C631" s="1"/>
+    </row>
+    <row r="632" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C632" s="1"/>
+    </row>
+    <row r="633" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C633" s="1"/>
+    </row>
+    <row r="634" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C634" s="1"/>
+    </row>
+    <row r="635" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C635" s="1"/>
+    </row>
+    <row r="636" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C636" s="1"/>
+    </row>
+    <row r="637" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C637" s="1"/>
+    </row>
+    <row r="638" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C638" s="1"/>
+    </row>
+    <row r="639" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C639" s="1"/>
+    </row>
+    <row r="640" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C640" s="1"/>
+    </row>
+    <row r="641" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C641" s="1"/>
+    </row>
+    <row r="642" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C642" s="1"/>
+    </row>
+    <row r="643" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C643" s="1"/>
+    </row>
+    <row r="644" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C644" s="1"/>
+    </row>
+    <row r="645" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C645" s="1"/>
+    </row>
+    <row r="646" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C646" s="1"/>
+    </row>
+    <row r="647" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C647" s="1"/>
+    </row>
+    <row r="648" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C648" s="1"/>
+    </row>
+    <row r="649" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C649" s="1"/>
+    </row>
+    <row r="650" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C650" s="1"/>
+    </row>
+    <row r="651" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C651" s="1"/>
+    </row>
+    <row r="652" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C652" s="1"/>
+    </row>
+    <row r="653" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C653" s="1"/>
+    </row>
+    <row r="654" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C654" s="1"/>
+    </row>
+    <row r="655" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C655" s="1"/>
+    </row>
+    <row r="656" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C656" s="1"/>
+    </row>
+    <row r="657" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C657" s="1"/>
+    </row>
+    <row r="658" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C658" s="1"/>
+    </row>
+    <row r="659" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C659" s="1"/>
+    </row>
+    <row r="660" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C660" s="1"/>
+    </row>
+    <row r="661" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C661" s="1"/>
+    </row>
+    <row r="662" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C662" s="1"/>
+    </row>
+    <row r="663" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C663" s="1"/>
+    </row>
+    <row r="664" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C664" s="1"/>
+    </row>
+    <row r="665" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C665" s="1"/>
+    </row>
+    <row r="666" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C666" s="1"/>
+    </row>
+    <row r="667" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C667" s="1"/>
+    </row>
+    <row r="668" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C668" s="1"/>
+    </row>
+    <row r="669" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C669" s="1"/>
+    </row>
+    <row r="670" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C670" s="1"/>
+    </row>
+    <row r="671" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C671" s="1"/>
+    </row>
+    <row r="672" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C672" s="1"/>
+    </row>
+    <row r="673" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C673" s="1"/>
+    </row>
+    <row r="674" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C674" s="1"/>
+    </row>
+    <row r="675" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C675" s="1"/>
+    </row>
+    <row r="676" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C676" s="1"/>
+    </row>
+    <row r="677" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C677" s="1"/>
+    </row>
+    <row r="678" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C678" s="1"/>
+    </row>
+    <row r="679" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C679" s="1"/>
+    </row>
+    <row r="680" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C680" s="1"/>
+    </row>
+    <row r="681" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C681" s="1"/>
+    </row>
+    <row r="682" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C682" s="1"/>
+    </row>
+    <row r="683" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C683" s="1"/>
+    </row>
+    <row r="684" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C684" s="1"/>
+    </row>
+    <row r="685" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C685" s="1"/>
+    </row>
+    <row r="686" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C686" s="1"/>
+    </row>
+    <row r="687" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C687" s="1"/>
+    </row>
+    <row r="688" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C688" s="1"/>
+    </row>
+    <row r="689" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C689" s="1"/>
+    </row>
+    <row r="690" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C690" s="1"/>
+    </row>
+    <row r="691" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C691" s="1"/>
+    </row>
+    <row r="692" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C692" s="1"/>
+    </row>
+    <row r="693" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C693" s="1"/>
+    </row>
+    <row r="694" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C694" s="1"/>
+    </row>
+    <row r="695" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C695" s="1"/>
+    </row>
+    <row r="696" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C696" s="1"/>
+    </row>
+    <row r="697" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C697" s="1"/>
+    </row>
+    <row r="698" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C698" s="1"/>
+    </row>
+    <row r="699" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C699" s="1"/>
+    </row>
+    <row r="700" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C700" s="1"/>
+    </row>
+    <row r="701" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C701" s="1"/>
+    </row>
+    <row r="702" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C702" s="1"/>
+    </row>
+    <row r="703" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C703" s="1"/>
+    </row>
+    <row r="704" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C704" s="1"/>
+    </row>
+    <row r="705" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C705" s="1"/>
+    </row>
+    <row r="706" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C706" s="1"/>
+    </row>
+    <row r="707" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C707" s="1"/>
+    </row>
+    <row r="708" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C708" s="1"/>
+    </row>
+    <row r="709" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C709" s="1"/>
+    </row>
+    <row r="710" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C710" s="1"/>
+    </row>
+    <row r="711" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C711" s="1"/>
+    </row>
+    <row r="712" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C712" s="1"/>
+    </row>
+    <row r="713" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C713" s="1"/>
+    </row>
+    <row r="714" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C714" s="1"/>
+    </row>
+    <row r="715" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C715" s="1"/>
+    </row>
+    <row r="716" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C716" s="1"/>
+    </row>
+    <row r="717" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C717" s="1"/>
+    </row>
+    <row r="718" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C718" s="1"/>
+    </row>
+    <row r="719" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C719" s="1"/>
+    </row>
+    <row r="720" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C720" s="1"/>
+    </row>
+    <row r="721" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C721" s="1"/>
+    </row>
+    <row r="722" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C722" s="1"/>
+    </row>
+    <row r="723" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C723" s="1"/>
+    </row>
+    <row r="724" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C724" s="1"/>
+    </row>
+    <row r="725" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C725" s="1"/>
+    </row>
+    <row r="726" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C726" s="1"/>
+    </row>
+    <row r="727" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C727" s="1"/>
+    </row>
+    <row r="728" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C728" s="1"/>
+    </row>
+    <row r="729" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C729" s="1"/>
+    </row>
+    <row r="730" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C730" s="1"/>
+    </row>
+    <row r="731" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C731" s="1"/>
+    </row>
+    <row r="732" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C732" s="1"/>
+    </row>
+    <row r="733" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C733" s="1"/>
+    </row>
+    <row r="734" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C734" s="1"/>
+    </row>
+    <row r="735" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C735" s="1"/>
+    </row>
+    <row r="736" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C736" s="1"/>
+    </row>
+    <row r="737" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C737" s="1"/>
+    </row>
+    <row r="738" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C738" s="1"/>
+    </row>
+    <row r="739" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C739" s="1"/>
+    </row>
+    <row r="740" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C740" s="1"/>
+    </row>
+    <row r="741" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C741" s="1"/>
+    </row>
+    <row r="742" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C742" s="1"/>
+    </row>
+    <row r="743" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C743" s="1"/>
+    </row>
+    <row r="744" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C744" s="1"/>
+    </row>
+    <row r="745" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C745" s="1"/>
+    </row>
+    <row r="746" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C746" s="1"/>
+    </row>
+    <row r="747" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C747" s="1"/>
+    </row>
+    <row r="748" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C748" s="1"/>
+    </row>
+    <row r="749" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C749" s="1"/>
+    </row>
+    <row r="750" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C750" s="1"/>
+    </row>
+    <row r="751" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C751" s="1"/>
+    </row>
+    <row r="752" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C752" s="1"/>
+    </row>
+    <row r="753" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C753" s="1"/>
+    </row>
+    <row r="754" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C754" s="1"/>
+    </row>
+    <row r="755" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C755" s="1"/>
+    </row>
+    <row r="756" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C756" s="1"/>
+    </row>
+    <row r="757" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C757" s="1"/>
+    </row>
+    <row r="758" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C758" s="1"/>
+    </row>
+    <row r="759" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C759" s="1"/>
+    </row>
+    <row r="760" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C760" s="1"/>
+    </row>
+    <row r="761" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C761" s="1"/>
+    </row>
+    <row r="762" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C762" s="1"/>
+    </row>
+    <row r="763" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C763" s="1"/>
+    </row>
+    <row r="764" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C764" s="1"/>
+    </row>
+    <row r="765" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C765" s="1"/>
+    </row>
+    <row r="766" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C766" s="1"/>
+    </row>
+    <row r="767" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C767" s="1"/>
+    </row>
+    <row r="768" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C768" s="1"/>
+    </row>
+    <row r="769" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C769" s="1"/>
+    </row>
+    <row r="770" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C770" s="1"/>
+    </row>
+    <row r="771" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C771" s="1"/>
+    </row>
+    <row r="772" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C772" s="1"/>
+    </row>
+    <row r="773" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C773" s="1"/>
+    </row>
+    <row r="774" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C774" s="1"/>
+    </row>
+    <row r="775" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C775" s="1"/>
+    </row>
+    <row r="776" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C776" s="1"/>
+    </row>
+    <row r="777" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C777" s="1"/>
+    </row>
+    <row r="778" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C778" s="1"/>
+    </row>
+    <row r="779" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C779" s="1"/>
+    </row>
+    <row r="780" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C780" s="1"/>
+    </row>
+    <row r="781" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C781" s="1"/>
+    </row>
+    <row r="782" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C782" s="1"/>
+    </row>
+    <row r="783" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C783" s="1"/>
+    </row>
+    <row r="784" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C784" s="1"/>
+    </row>
+    <row r="785" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C785" s="1"/>
+    </row>
+    <row r="786" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C786" s="1"/>
+    </row>
+    <row r="787" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C787" s="1"/>
+    </row>
+    <row r="788" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C788" s="1"/>
+    </row>
+    <row r="789" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C789" s="1"/>
+    </row>
+    <row r="790" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C790" s="1"/>
+    </row>
+    <row r="791" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C791" s="1"/>
+    </row>
+    <row r="792" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C792" s="1"/>
+    </row>
+    <row r="793" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C793" s="1"/>
+    </row>
+    <row r="794" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C794" s="1"/>
+    </row>
+    <row r="795" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C795" s="1"/>
+    </row>
+    <row r="796" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C796" s="1"/>
+    </row>
+    <row r="797" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C797" s="1"/>
+    </row>
+    <row r="798" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C798" s="1"/>
+    </row>
+    <row r="799" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C799" s="1"/>
+    </row>
+    <row r="800" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C800" s="1"/>
+    </row>
+    <row r="801" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C801" s="1"/>
+    </row>
+    <row r="802" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C802" s="1"/>
+    </row>
+    <row r="803" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C803" s="1"/>
+    </row>
+    <row r="804" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C804" s="1"/>
+    </row>
+    <row r="805" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C805" s="1"/>
+    </row>
+    <row r="806" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C806" s="1"/>
+    </row>
+    <row r="807" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C807" s="1"/>
+    </row>
+    <row r="808" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C808" s="1"/>
+    </row>
+    <row r="809" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C809" s="1"/>
+    </row>
+    <row r="810" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C810" s="1"/>
+    </row>
+    <row r="811" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C811" s="1"/>
+    </row>
+    <row r="812" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C812" s="1"/>
+    </row>
+    <row r="813" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C813" s="1"/>
+    </row>
+    <row r="814" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C814" s="1"/>
+    </row>
+    <row r="815" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C815" s="1"/>
+    </row>
+    <row r="816" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C816" s="1"/>
+    </row>
+    <row r="817" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C817" s="1"/>
+    </row>
+    <row r="818" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C818" s="1"/>
+    </row>
+    <row r="819" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C819" s="1"/>
+    </row>
+    <row r="820" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C820" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H812"/>
+  <sheetViews>
+    <sheetView zoomScale="88" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="66.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>7.6988372988513798E-2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2">
+        <v>6.0886303210072401E-3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.32738493568295002</v>
+      </c>
+      <c r="F4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2">
+        <v>5.6184414648212397E-3</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.32723622574168998</v>
+      </c>
+      <c r="F5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2">
+        <v>6.06618593919892E-3</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.32723622574168998</v>
+      </c>
+      <c r="F6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="2">
+        <v>4.6797820481302996E-3</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.39943490222321298</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2">
+        <v>5.2968983409796104E-3</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.39943490222321298</v>
+      </c>
+      <c r="F8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="2">
+        <v>5.4632200339983601E-3</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.39943490222321298</v>
+      </c>
+      <c r="F9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2">
+        <v>6.9394548216444802E-3</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.39943490222321298</v>
+      </c>
+      <c r="F10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="2">
+        <v>4.2467048433447799E-3</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.44783998810320402</v>
+      </c>
+      <c r="F11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="2">
+        <v>4.6358700784589696E-3</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.44783998810320402</v>
+      </c>
+      <c r="F12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14">
+        <v>61</v>
+      </c>
+      <c r="C14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="2">
+        <v>3.88426881014357E-3</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.151163655290356</v>
+      </c>
+      <c r="F14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>64</v>
+      </c>
+      <c r="C15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="2">
+        <v>3.8167408024446501E-3</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.14818945646516399</v>
+      </c>
+      <c r="F15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="2">
+        <v>4.0569970663509002E-3</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.18172354821919801</v>
+      </c>
+      <c r="F16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="2">
+        <v>4.2349802523598502E-3</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.18172354821919801</v>
+      </c>
+      <c r="F17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>60</v>
+      </c>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="2">
+        <v>3.9002788124988799E-3</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.15235333482043201</v>
+      </c>
+      <c r="F18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="2">
+        <v>3.9506525216684799E-3</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.15235333482043201</v>
+      </c>
+      <c r="F19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="2">
+        <v>3.9100771283853003E-3</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.14841252137705399</v>
+      </c>
+      <c r="F20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="2">
+        <v>4.8106244528216997E-3</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.14818945646516399</v>
+      </c>
+      <c r="F21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>42</v>
+      </c>
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="2">
+        <v>4.42048354370091E-3</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.14818945646516399</v>
+      </c>
+      <c r="F22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>63</v>
+      </c>
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="2">
+        <v>3.82237715303452E-3</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.148115101494534</v>
+      </c>
+      <c r="F23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>37</v>
+      </c>
+      <c r="C24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="2">
+        <v>4.6641402100616102E-3</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.14818945646516399</v>
+      </c>
+      <c r="F24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="2">
+        <v>5.0658504767432302E-3</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.34545319354598802</v>
+      </c>
+      <c r="F25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>62</v>
+      </c>
+      <c r="C26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="2">
+        <v>3.8496945992323498E-3</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.34582496839913701</v>
+      </c>
+      <c r="F26" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>54</v>
+      </c>
+      <c r="C27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="2">
+        <v>4.0344900126817896E-3</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.18164919324856801</v>
+      </c>
+      <c r="F27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>40</v>
+      </c>
+      <c r="C28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="2">
+        <v>4.5696655244795896E-3</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.17302401665551301</v>
+      </c>
+      <c r="F28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>44</v>
+      </c>
+      <c r="C29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="2">
+        <v>4.3997955582893503E-3</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.14818945646516399</v>
+      </c>
+      <c r="F29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>117</v>
+      </c>
+      <c r="B31">
+        <v>50</v>
+      </c>
+      <c r="C31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="2">
+        <v>4.1710935145113101E-3</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0.38553052271544302</v>
+      </c>
+      <c r="F31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>34</v>
+      </c>
+      <c r="C32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="2">
+        <v>4.68661178478597E-3</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0.38307680868465999</v>
+      </c>
+      <c r="F32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>25</v>
+      </c>
+      <c r="C33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="2">
+        <v>5.02638917720955E-3</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0.38307680868465999</v>
+      </c>
+      <c r="F33" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>27</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="2">
+        <v>4.8255319517849799E-3</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0.38307680868465999</v>
+      </c>
+      <c r="F34" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>32</v>
+      </c>
+      <c r="C35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="2">
+        <v>4.7680978832997101E-3</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0.38307680868465999</v>
+      </c>
+      <c r="F35" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>118</v>
+      </c>
+      <c r="B37">
+        <v>13</v>
+      </c>
+      <c r="C37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="2">
+        <v>6.1131647748971204E-3</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0.34567625845787697</v>
+      </c>
+      <c r="F37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1.41775161181778E-2</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0.34567625845787697</v>
+      </c>
+      <c r="F38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>55</v>
+      </c>
+      <c r="C39" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" s="2">
+        <v>4.0124412116128499E-3</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0.34530448360472898</v>
+      </c>
+      <c r="F39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>20</v>
+      </c>
+      <c r="C40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="2">
+        <v>5.4110878168895302E-3</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0.34530448360472898</v>
+      </c>
+      <c r="F40" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1.2709943390960401E-2</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0.349542716930626</v>
+      </c>
+      <c r="F41" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>18</v>
+      </c>
+      <c r="C42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="2">
+        <v>5.54877552440417E-3</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0.84266488214737101</v>
+      </c>
+      <c r="F42" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1.08112052101069E-2</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0.345155773663469</v>
+      </c>
+      <c r="F43" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>39</v>
+      </c>
+      <c r="C44" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" s="2">
+        <v>4.63335378221192E-3</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0.345155773663469</v>
+      </c>
+      <c r="F44" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <v>36</v>
+      </c>
+      <c r="C45" t="s">
+        <v>36</v>
+      </c>
+      <c r="D45" s="2">
+        <v>4.6750664375130504E-3</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0.345378838575358</v>
+      </c>
+      <c r="F45" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B46">
+        <v>7</v>
+      </c>
+      <c r="C46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="2">
+        <v>8.2825354811677399E-3</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0.345378838575358</v>
+      </c>
+      <c r="F46" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <v>45</v>
+      </c>
+      <c r="C47" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47" s="2">
+        <v>4.36568584334362E-3</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0.345155773663469</v>
+      </c>
+      <c r="F47" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B48">
+        <v>8</v>
+      </c>
+      <c r="C48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="2">
+        <v>7.0604005210429602E-3</v>
+      </c>
+      <c r="E48" s="2">
+        <v>0.34552754851661799</v>
+      </c>
+      <c r="F48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B49">
+        <v>16</v>
+      </c>
+      <c r="C49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="2">
+        <v>5.8711470009780199E-3</v>
+      </c>
+      <c r="E49" s="2">
+        <v>0.34589932336976698</v>
+      </c>
+      <c r="F49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B50">
+        <v>4</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1.24397275102422E-2</v>
+      </c>
+      <c r="E50" s="2">
+        <v>0.34589932336976698</v>
+      </c>
+      <c r="F50" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B51">
+        <v>46</v>
+      </c>
+      <c r="C51" t="s">
+        <v>46</v>
+      </c>
+      <c r="D51" s="2">
+        <v>4.2972535528377999E-3</v>
+      </c>
+      <c r="E51" s="2">
+        <v>0.34508141869283898</v>
+      </c>
+      <c r="F51" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B52">
+        <v>12</v>
+      </c>
+      <c r="C52" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="2">
+        <v>6.2839061047449598E-3</v>
+      </c>
+      <c r="E52" s="2">
+        <v>0.34508141869283898</v>
+      </c>
+      <c r="F52" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>120</v>
+      </c>
+      <c r="B54">
+        <v>26</v>
+      </c>
+      <c r="C54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D54" s="2">
+        <v>4.9702140859798696E-3</v>
+      </c>
+      <c r="E54" s="2">
+        <v>0.34523012863409902</v>
+      </c>
+      <c r="F54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B55">
+        <v>51</v>
+      </c>
+      <c r="C55" t="s">
+        <v>51</v>
+      </c>
+      <c r="D55" s="2">
+        <v>4.1058531343130698E-3</v>
+      </c>
+      <c r="E55" s="2">
+        <v>0.34523012863409902</v>
+      </c>
+      <c r="F55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B56">
+        <v>33</v>
+      </c>
+      <c r="C56" t="s">
+        <v>33</v>
+      </c>
+      <c r="D56" s="2">
+        <v>4.6998781680863697E-3</v>
+      </c>
+      <c r="E56" s="2">
+        <v>0.34508141869283898</v>
+      </c>
+      <c r="F56" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B57">
+        <v>22</v>
+      </c>
+      <c r="C57" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57" s="2">
+        <v>5.1602474647022903E-3</v>
+      </c>
+      <c r="E57" s="2">
+        <v>0.34508141869283898</v>
+      </c>
+      <c r="F57" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B58">
+        <v>31</v>
+      </c>
+      <c r="C58" t="s">
+        <v>31</v>
+      </c>
+      <c r="D58" s="2">
+        <v>4.7961418423254597E-3</v>
+      </c>
+      <c r="E58" s="2">
+        <v>0.345155773663469</v>
+      </c>
+      <c r="F58" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B59">
+        <v>41</v>
+      </c>
+      <c r="C59" t="s">
+        <v>41</v>
+      </c>
+      <c r="D59" s="2">
+        <v>4.4423803430324099E-3</v>
+      </c>
+      <c r="E59" s="2">
+        <v>0.34552754851661799</v>
+      </c>
+      <c r="F59" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B60">
+        <v>30</v>
+      </c>
+      <c r="C60" t="s">
+        <v>30</v>
+      </c>
+      <c r="D60" s="2">
+        <v>4.8079011669586499E-3</v>
+      </c>
+      <c r="E60" s="2">
+        <v>0.82749646813889499</v>
+      </c>
+      <c r="F60" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B61">
+        <v>47</v>
+      </c>
+      <c r="C61" t="s">
+        <v>47</v>
+      </c>
+      <c r="D61" s="2">
+        <v>4.2679303129754698E-3</v>
+      </c>
+      <c r="E61" s="2">
+        <v>0.82749646813889499</v>
+      </c>
+      <c r="F61" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>121</v>
+      </c>
+      <c r="B63">
+        <v>10</v>
+      </c>
+      <c r="C63" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" s="2">
+        <v>6.6782732445515398E-3</v>
+      </c>
+      <c r="E63" s="2">
+        <v>0.36575210052792001</v>
+      </c>
+      <c r="F63" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B64">
+        <v>43</v>
+      </c>
+      <c r="C64" t="s">
+        <v>43</v>
+      </c>
+      <c r="D64" s="2">
+        <v>4.4086806431233097E-3</v>
+      </c>
+      <c r="E64" s="2">
+        <v>0.36575210052792001</v>
+      </c>
+      <c r="F64" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="507" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D507" s="1"/>
+    </row>
+    <row r="508" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D508" s="1"/>
+    </row>
+    <row r="509" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D509" s="1"/>
+    </row>
+    <row r="510" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D510" s="1"/>
+    </row>
+    <row r="511" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D511" s="1"/>
+    </row>
+    <row r="512" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D512" s="1"/>
+    </row>
+    <row r="513" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D513" s="1"/>
+    </row>
+    <row r="514" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D514" s="1"/>
+    </row>
+    <row r="515" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D515" s="1"/>
+    </row>
+    <row r="516" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D516" s="1"/>
+    </row>
+    <row r="517" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D517" s="1"/>
+    </row>
+    <row r="518" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D518" s="1"/>
+    </row>
+    <row r="519" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D519" s="1"/>
+    </row>
+    <row r="520" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D520" s="1"/>
+    </row>
+    <row r="521" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D521" s="1"/>
+    </row>
+    <row r="522" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D522" s="1"/>
+    </row>
+    <row r="523" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D523" s="1"/>
+    </row>
+    <row r="524" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D524" s="1"/>
+    </row>
+    <row r="525" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D525" s="1"/>
+    </row>
+    <row r="526" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D526" s="1"/>
+    </row>
+    <row r="527" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D527" s="1"/>
+    </row>
+    <row r="528" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D528" s="1"/>
+    </row>
+    <row r="529" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D529" s="1"/>
+    </row>
+    <row r="530" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D530" s="1"/>
+    </row>
+    <row r="531" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D531" s="1"/>
+    </row>
+    <row r="532" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D532" s="1"/>
+    </row>
+    <row r="533" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D533" s="1"/>
+    </row>
+    <row r="534" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D534" s="1"/>
+    </row>
+    <row r="535" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D535" s="1"/>
+    </row>
+    <row r="536" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D536" s="1"/>
+    </row>
+    <row r="537" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D537" s="1"/>
+    </row>
+    <row r="538" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D538" s="1"/>
+    </row>
+    <row r="539" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D539" s="1"/>
+    </row>
+    <row r="540" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D540" s="1"/>
+    </row>
+    <row r="541" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D541" s="1"/>
+    </row>
+    <row r="542" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D542" s="1"/>
+    </row>
+    <row r="543" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D543" s="1"/>
+    </row>
+    <row r="544" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D544" s="1"/>
+    </row>
+    <row r="545" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D545" s="1"/>
+    </row>
+    <row r="546" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D546" s="1"/>
+    </row>
+    <row r="547" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D547" s="1"/>
+    </row>
+    <row r="548" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D548" s="1"/>
+    </row>
+    <row r="549" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D549" s="1"/>
+    </row>
+    <row r="550" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D550" s="1"/>
+    </row>
+    <row r="551" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D551" s="1"/>
+    </row>
+    <row r="552" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D552" s="1"/>
+    </row>
+    <row r="553" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D553" s="1"/>
+    </row>
+    <row r="554" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D554" s="1"/>
+    </row>
+    <row r="555" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D555" s="1"/>
+    </row>
+    <row r="556" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D556" s="1"/>
+    </row>
+    <row r="557" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D557" s="1"/>
+    </row>
+    <row r="558" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D558" s="1"/>
+    </row>
+    <row r="559" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D559" s="1"/>
+    </row>
+    <row r="560" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D560" s="1"/>
+    </row>
+    <row r="561" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D561" s="1"/>
+    </row>
+    <row r="562" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D562" s="1"/>
+    </row>
+    <row r="563" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D563" s="1"/>
+    </row>
+    <row r="564" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D564" s="1"/>
+    </row>
+    <row r="565" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D565" s="1"/>
+    </row>
+    <row r="566" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D566" s="1"/>
+    </row>
+    <row r="567" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D567" s="1"/>
+    </row>
+    <row r="568" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D568" s="1"/>
+    </row>
+    <row r="569" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D569" s="1"/>
+    </row>
+    <row r="570" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D570" s="1"/>
+    </row>
+    <row r="571" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D571" s="1"/>
+    </row>
+    <row r="572" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D572" s="1"/>
+    </row>
+    <row r="573" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D573" s="1"/>
+    </row>
+    <row r="574" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D574" s="1"/>
+    </row>
+    <row r="575" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D575" s="1"/>
+    </row>
+    <row r="576" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D576" s="1"/>
+    </row>
+    <row r="577" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D577" s="1"/>
+    </row>
+    <row r="578" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D578" s="1"/>
+    </row>
+    <row r="579" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D579" s="1"/>
+    </row>
+    <row r="580" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D580" s="1"/>
+    </row>
+    <row r="581" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D581" s="1"/>
+    </row>
+    <row r="582" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D582" s="1"/>
+    </row>
+    <row r="583" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D583" s="1"/>
+    </row>
+    <row r="584" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D584" s="1"/>
+    </row>
+    <row r="585" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D585" s="1"/>
+    </row>
+    <row r="586" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D586" s="1"/>
+    </row>
+    <row r="587" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D587" s="1"/>
+    </row>
+    <row r="588" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D588" s="1"/>
+    </row>
+    <row r="589" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D589" s="1"/>
+    </row>
+    <row r="590" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D590" s="1"/>
+    </row>
+    <row r="591" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D591" s="1"/>
+    </row>
+    <row r="592" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D592" s="1"/>
+    </row>
+    <row r="593" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D593" s="1"/>
+    </row>
+    <row r="594" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D594" s="1"/>
+    </row>
+    <row r="595" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D595" s="1"/>
+    </row>
+    <row r="596" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D596" s="1"/>
+    </row>
+    <row r="597" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D597" s="1"/>
+    </row>
+    <row r="598" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D598" s="1"/>
+    </row>
+    <row r="599" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D599" s="1"/>
+    </row>
+    <row r="600" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D600" s="1"/>
+    </row>
+    <row r="601" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D601" s="1"/>
+    </row>
+    <row r="602" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D602" s="1"/>
+    </row>
+    <row r="603" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D603" s="1"/>
+    </row>
+    <row r="604" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D604" s="1"/>
+    </row>
+    <row r="605" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D605" s="1"/>
+    </row>
+    <row r="606" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D606" s="1"/>
+    </row>
+    <row r="607" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D607" s="1"/>
+    </row>
+    <row r="608" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D608" s="1"/>
+    </row>
+    <row r="609" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D609" s="1"/>
+    </row>
+    <row r="610" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D610" s="1"/>
+    </row>
+    <row r="611" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D611" s="1"/>
+    </row>
+    <row r="612" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D612" s="1"/>
+    </row>
+    <row r="613" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D613" s="1"/>
+    </row>
+    <row r="614" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D614" s="1"/>
+    </row>
+    <row r="615" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D615" s="1"/>
+    </row>
+    <row r="616" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D616" s="1"/>
+    </row>
+    <row r="617" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D617" s="1"/>
+    </row>
+    <row r="618" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D618" s="1"/>
+    </row>
+    <row r="619" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D619" s="1"/>
+    </row>
+    <row r="620" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D620" s="1"/>
+    </row>
+    <row r="621" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D621" s="1"/>
+    </row>
+    <row r="622" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D622" s="1"/>
+    </row>
+    <row r="623" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D623" s="1"/>
+    </row>
+    <row r="624" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D624" s="1"/>
+    </row>
+    <row r="625" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D625" s="1"/>
+    </row>
+    <row r="626" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D626" s="1"/>
+    </row>
+    <row r="627" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D627" s="1"/>
+    </row>
+    <row r="628" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D628" s="1"/>
+    </row>
+    <row r="629" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D629" s="1"/>
+    </row>
+    <row r="630" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D630" s="1"/>
+    </row>
+    <row r="631" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D631" s="1"/>
+    </row>
+    <row r="632" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D632" s="1"/>
+    </row>
+    <row r="633" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D633" s="1"/>
+    </row>
+    <row r="634" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D634" s="1"/>
+    </row>
+    <row r="635" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D635" s="1"/>
+    </row>
+    <row r="636" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D636" s="1"/>
+    </row>
+    <row r="637" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D637" s="1"/>
+    </row>
+    <row r="638" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D638" s="1"/>
+    </row>
+    <row r="639" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D639" s="1"/>
+    </row>
+    <row r="640" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D640" s="1"/>
+    </row>
+    <row r="641" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D641" s="1"/>
+    </row>
+    <row r="642" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D642" s="1"/>
+    </row>
+    <row r="643" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D643" s="1"/>
+    </row>
+    <row r="644" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D644" s="1"/>
+    </row>
+    <row r="645" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D645" s="1"/>
+    </row>
+    <row r="646" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D646" s="1"/>
+    </row>
+    <row r="647" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D647" s="1"/>
+    </row>
+    <row r="648" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D648" s="1"/>
+    </row>
+    <row r="649" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D649" s="1"/>
+    </row>
+    <row r="650" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D650" s="1"/>
+    </row>
+    <row r="651" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D651" s="1"/>
+    </row>
+    <row r="652" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D652" s="1"/>
+    </row>
+    <row r="653" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D653" s="1"/>
+    </row>
+    <row r="654" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D654" s="1"/>
+    </row>
+    <row r="655" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D655" s="1"/>
+    </row>
+    <row r="656" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D656" s="1"/>
+    </row>
+    <row r="657" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D657" s="1"/>
+    </row>
+    <row r="658" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D658" s="1"/>
+    </row>
+    <row r="659" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D659" s="1"/>
+    </row>
+    <row r="660" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D660" s="1"/>
+    </row>
+    <row r="661" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D661" s="1"/>
+    </row>
+    <row r="662" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D662" s="1"/>
+    </row>
+    <row r="663" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D663" s="1"/>
+    </row>
+    <row r="664" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D664" s="1"/>
+    </row>
+    <row r="665" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D665" s="1"/>
+    </row>
+    <row r="666" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D666" s="1"/>
+    </row>
+    <row r="667" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D667" s="1"/>
+    </row>
+    <row r="668" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D668" s="1"/>
+    </row>
+    <row r="669" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D669" s="1"/>
+    </row>
+    <row r="670" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D670" s="1"/>
+    </row>
+    <row r="671" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D671" s="1"/>
+    </row>
+    <row r="672" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D672" s="1"/>
+    </row>
+    <row r="673" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D673" s="1"/>
+    </row>
+    <row r="674" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D674" s="1"/>
+    </row>
+    <row r="675" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D675" s="1"/>
+    </row>
+    <row r="676" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D676" s="1"/>
+    </row>
+    <row r="677" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D677" s="1"/>
+    </row>
+    <row r="678" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D678" s="1"/>
+    </row>
+    <row r="679" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D679" s="1"/>
+    </row>
+    <row r="680" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D680" s="1"/>
+    </row>
+    <row r="681" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D681" s="1"/>
+    </row>
+    <row r="682" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D682" s="1"/>
+    </row>
+    <row r="683" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D683" s="1"/>
+    </row>
+    <row r="684" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D684" s="1"/>
+    </row>
+    <row r="685" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D685" s="1"/>
+    </row>
+    <row r="686" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D686" s="1"/>
+    </row>
+    <row r="687" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D687" s="1"/>
+    </row>
+    <row r="688" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D688" s="1"/>
+    </row>
+    <row r="689" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D689" s="1"/>
+    </row>
+    <row r="690" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D690" s="1"/>
+    </row>
+    <row r="691" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D691" s="1"/>
+    </row>
+    <row r="692" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D692" s="1"/>
+    </row>
+    <row r="693" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D693" s="1"/>
+    </row>
+    <row r="694" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D694" s="1"/>
+    </row>
+    <row r="695" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D695" s="1"/>
+    </row>
+    <row r="696" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D696" s="1"/>
+    </row>
+    <row r="697" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D697" s="1"/>
+    </row>
+    <row r="698" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D698" s="1"/>
+    </row>
+    <row r="699" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D699" s="1"/>
+    </row>
+    <row r="700" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D700" s="1"/>
+    </row>
+    <row r="701" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D701" s="1"/>
+    </row>
+    <row r="702" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D702" s="1"/>
+    </row>
+    <row r="703" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D703" s="1"/>
+    </row>
+    <row r="704" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D704" s="1"/>
+    </row>
+    <row r="705" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D705" s="1"/>
+    </row>
+    <row r="706" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D706" s="1"/>
+    </row>
+    <row r="707" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D707" s="1"/>
+    </row>
+    <row r="708" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D708" s="1"/>
+    </row>
+    <row r="709" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D709" s="1"/>
+    </row>
+    <row r="710" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D710" s="1"/>
+    </row>
+    <row r="711" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D711" s="1"/>
+    </row>
+    <row r="712" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D712" s="1"/>
+    </row>
+    <row r="713" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D713" s="1"/>
+    </row>
+    <row r="714" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D714" s="1"/>
+    </row>
+    <row r="715" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D715" s="1"/>
+    </row>
+    <row r="716" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D716" s="1"/>
+    </row>
+    <row r="717" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D717" s="1"/>
+    </row>
+    <row r="718" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D718" s="1"/>
+    </row>
+    <row r="719" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D719" s="1"/>
+    </row>
+    <row r="720" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D720" s="1"/>
+    </row>
+    <row r="721" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D721" s="1"/>
+    </row>
+    <row r="722" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D722" s="1"/>
+    </row>
+    <row r="723" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D723" s="1"/>
+    </row>
+    <row r="724" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D724" s="1"/>
+    </row>
+    <row r="725" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D725" s="1"/>
+    </row>
+    <row r="726" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D726" s="1"/>
+    </row>
+    <row r="727" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D727" s="1"/>
+    </row>
+    <row r="728" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D728" s="1"/>
+    </row>
+    <row r="729" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D729" s="1"/>
+    </row>
+    <row r="730" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D730" s="1"/>
+    </row>
+    <row r="731" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D731" s="1"/>
+    </row>
+    <row r="732" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D732" s="1"/>
+    </row>
+    <row r="733" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D733" s="1"/>
+    </row>
+    <row r="734" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D734" s="1"/>
+    </row>
+    <row r="735" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D735" s="1"/>
+    </row>
+    <row r="736" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D736" s="1"/>
+    </row>
+    <row r="737" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D737" s="1"/>
+    </row>
+    <row r="738" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D738" s="1"/>
+    </row>
+    <row r="739" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D739" s="1"/>
+    </row>
+    <row r="740" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D740" s="1"/>
+    </row>
+    <row r="741" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D741" s="1"/>
+    </row>
+    <row r="742" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D742" s="1"/>
+    </row>
+    <row r="743" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D743" s="1"/>
+    </row>
+    <row r="744" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D744" s="1"/>
+    </row>
+    <row r="745" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D745" s="1"/>
+    </row>
+    <row r="746" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D746" s="1"/>
+    </row>
+    <row r="747" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D747" s="1"/>
+    </row>
+    <row r="748" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D748" s="1"/>
+    </row>
+    <row r="749" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D749" s="1"/>
+    </row>
+    <row r="750" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D750" s="1"/>
+    </row>
+    <row r="751" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D751" s="1"/>
+    </row>
+    <row r="752" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D752" s="1"/>
+    </row>
+    <row r="753" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D753" s="1"/>
+    </row>
+    <row r="754" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D754" s="1"/>
+    </row>
+    <row r="755" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D755" s="1"/>
+    </row>
+    <row r="756" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D756" s="1"/>
+    </row>
+    <row r="757" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D757" s="1"/>
+    </row>
+    <row r="758" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D758" s="1"/>
+    </row>
+    <row r="759" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D759" s="1"/>
+    </row>
+    <row r="760" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D760" s="1"/>
+    </row>
+    <row r="761" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D761" s="1"/>
+    </row>
+    <row r="762" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D762" s="1"/>
+    </row>
+    <row r="763" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D763" s="1"/>
+    </row>
+    <row r="764" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D764" s="1"/>
+    </row>
+    <row r="765" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D765" s="1"/>
+    </row>
+    <row r="766" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D766" s="1"/>
+    </row>
+    <row r="767" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D767" s="1"/>
+    </row>
+    <row r="768" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D768" s="1"/>
+    </row>
+    <row r="769" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D769" s="1"/>
+    </row>
+    <row r="770" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D770" s="1"/>
+    </row>
+    <row r="771" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D771" s="1"/>
+    </row>
+    <row r="772" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D772" s="1"/>
+    </row>
+    <row r="773" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D773" s="1"/>
+    </row>
+    <row r="774" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D774" s="1"/>
+    </row>
+    <row r="775" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D775" s="1"/>
+    </row>
+    <row r="776" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D776" s="1"/>
+    </row>
+    <row r="777" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D777" s="1"/>
+    </row>
+    <row r="778" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D778" s="1"/>
+    </row>
+    <row r="779" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D779" s="1"/>
+    </row>
+    <row r="780" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D780" s="1"/>
+    </row>
+    <row r="781" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D781" s="1"/>
+    </row>
+    <row r="782" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D782" s="1"/>
+    </row>
+    <row r="783" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D783" s="1"/>
+    </row>
+    <row r="784" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D784" s="1"/>
+    </row>
+    <row r="785" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D785" s="1"/>
+    </row>
+    <row r="786" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D786" s="1"/>
+    </row>
+    <row r="787" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D787" s="1"/>
+    </row>
+    <row r="788" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D788" s="1"/>
+    </row>
+    <row r="789" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D789" s="1"/>
+    </row>
+    <row r="790" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D790" s="1"/>
+    </row>
+    <row r="791" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D791" s="1"/>
+    </row>
+    <row r="792" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D792" s="1"/>
+    </row>
+    <row r="793" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D793" s="1"/>
+    </row>
+    <row r="794" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D794" s="1"/>
+    </row>
+    <row r="795" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D795" s="1"/>
+    </row>
+    <row r="796" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D796" s="1"/>
+    </row>
+    <row r="797" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D797" s="1"/>
+    </row>
+    <row r="798" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D798" s="1"/>
+    </row>
+    <row r="799" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D799" s="1"/>
+    </row>
+    <row r="800" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D800" s="1"/>
+    </row>
+    <row r="801" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D801" s="1"/>
+    </row>
+    <row r="802" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D802" s="1"/>
+    </row>
+    <row r="803" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D803" s="1"/>
+    </row>
+    <row r="804" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D804" s="1"/>
+    </row>
+    <row r="805" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D805" s="1"/>
+    </row>
+    <row r="806" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D806" s="1"/>
+    </row>
+    <row r="807" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D807" s="1"/>
+    </row>
+    <row r="808" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D808" s="1"/>
+    </row>
+    <row r="809" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D809" s="1"/>
+    </row>
+    <row r="810" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D810" s="1"/>
+    </row>
+    <row r="811" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D811" s="1"/>
+    </row>
+    <row r="812" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D812" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H780"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="66.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>7.6988372988513798E-2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2">
+        <v>6.0886303210072401E-3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.32738493568295002</v>
+      </c>
+      <c r="F4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2">
+        <v>5.6184414648212397E-3</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.32723622574168998</v>
+      </c>
+      <c r="F5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2">
+        <v>6.06618593919892E-3</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.32723622574168998</v>
+      </c>
+      <c r="F6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5.2968983409796104E-3</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.39943490222321298</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2">
+        <v>5.4632200339983601E-3</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.39943490222321298</v>
+      </c>
+      <c r="F8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2">
+        <v>6.9394548216444802E-3</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.39943490222321298</v>
+      </c>
+      <c r="F9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="2">
+        <v>4.8106244528216997E-3</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.14818945646516399</v>
+      </c>
+      <c r="F11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="2">
+        <v>5.0658504767432302E-3</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.34545319354598802</v>
+      </c>
+      <c r="F12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="2">
+        <v>5.02638917720955E-3</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.38307680868465999</v>
+      </c>
+      <c r="F14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="2">
+        <v>4.8255319517849799E-3</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.38307680868465999</v>
+      </c>
+      <c r="F15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2">
+        <v>6.1131647748971204E-3</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.34567625845787697</v>
+      </c>
+      <c r="F17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1.41775161181778E-2</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.34567625845787697</v>
+      </c>
+      <c r="F18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="2">
+        <v>5.4110878168895302E-3</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.34530448360472898</v>
+      </c>
+      <c r="F19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1.2709943390960401E-2</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.349542716930626</v>
+      </c>
+      <c r="F20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="2">
+        <v>5.54877552440417E-3</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.84266488214737101</v>
+      </c>
+      <c r="F21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1.08112052101069E-2</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.345155773663469</v>
+      </c>
+      <c r="F22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="2">
+        <v>8.2825354811677399E-3</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.345378838575358</v>
+      </c>
+      <c r="F23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="2">
+        <v>7.0604005210429602E-3</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.34552754851661799</v>
+      </c>
+      <c r="F24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="2">
+        <v>5.8711470009780199E-3</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.34589932336976698</v>
+      </c>
+      <c r="F25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1.24397275102422E-2</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.34589932336976698</v>
+      </c>
+      <c r="F26" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="2">
+        <v>6.2839061047449598E-3</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.34508141869283898</v>
+      </c>
+      <c r="F27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>120</v>
+      </c>
+      <c r="B29">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="2">
+        <v>4.9702140859798696E-3</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.34523012863409902</v>
+      </c>
+      <c r="F29" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>22</v>
+      </c>
+      <c r="C30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="2">
+        <v>5.1602474647022903E-3</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.34508141869283898</v>
+      </c>
+      <c r="F30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>121</v>
+      </c>
+      <c r="B32">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="2">
+        <v>6.6782732445515398E-3</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0.36575210052792001</v>
+      </c>
+      <c r="F32" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="475" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D475" s="1"/>
+    </row>
+    <row r="476" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D476" s="1"/>
+    </row>
+    <row r="477" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D477" s="1"/>
+    </row>
+    <row r="478" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D478" s="1"/>
+    </row>
+    <row r="479" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D479" s="1"/>
+    </row>
+    <row r="480" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D480" s="1"/>
+    </row>
+    <row r="481" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D481" s="1"/>
+    </row>
+    <row r="482" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D482" s="1"/>
+    </row>
+    <row r="483" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D483" s="1"/>
+    </row>
+    <row r="484" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D484" s="1"/>
+    </row>
+    <row r="485" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D485" s="1"/>
+    </row>
+    <row r="486" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D486" s="1"/>
+    </row>
+    <row r="487" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D487" s="1"/>
+    </row>
+    <row r="488" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D488" s="1"/>
+    </row>
+    <row r="489" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D489" s="1"/>
+    </row>
+    <row r="490" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D490" s="1"/>
+    </row>
+    <row r="491" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D491" s="1"/>
+    </row>
+    <row r="492" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D492" s="1"/>
+    </row>
+    <row r="493" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D493" s="1"/>
+    </row>
+    <row r="494" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D494" s="1"/>
+    </row>
+    <row r="495" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D495" s="1"/>
+    </row>
+    <row r="496" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D496" s="1"/>
+    </row>
+    <row r="497" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D497" s="1"/>
+    </row>
+    <row r="498" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D498" s="1"/>
+    </row>
+    <row r="499" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D499" s="1"/>
+    </row>
+    <row r="500" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D500" s="1"/>
+    </row>
+    <row r="501" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D501" s="1"/>
+    </row>
+    <row r="502" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D502" s="1"/>
+    </row>
+    <row r="503" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D503" s="1"/>
+    </row>
+    <row r="504" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D504" s="1"/>
+    </row>
+    <row r="505" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D505" s="1"/>
+    </row>
+    <row r="506" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D506" s="1"/>
+    </row>
+    <row r="507" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D507" s="1"/>
+    </row>
+    <row r="508" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D508" s="1"/>
+    </row>
+    <row r="509" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D509" s="1"/>
+    </row>
+    <row r="510" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D510" s="1"/>
+    </row>
+    <row r="511" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D511" s="1"/>
+    </row>
+    <row r="512" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D512" s="1"/>
+    </row>
+    <row r="513" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D513" s="1"/>
+    </row>
+    <row r="514" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D514" s="1"/>
+    </row>
+    <row r="515" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D515" s="1"/>
+    </row>
+    <row r="516" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D516" s="1"/>
+    </row>
+    <row r="517" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D517" s="1"/>
+    </row>
+    <row r="518" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D518" s="1"/>
+    </row>
+    <row r="519" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D519" s="1"/>
+    </row>
+    <row r="520" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D520" s="1"/>
+    </row>
+    <row r="521" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D521" s="1"/>
+    </row>
+    <row r="522" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D522" s="1"/>
+    </row>
+    <row r="523" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D523" s="1"/>
+    </row>
+    <row r="524" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D524" s="1"/>
+    </row>
+    <row r="525" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D525" s="1"/>
+    </row>
+    <row r="526" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D526" s="1"/>
+    </row>
+    <row r="527" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D527" s="1"/>
+    </row>
+    <row r="528" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D528" s="1"/>
+    </row>
+    <row r="529" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D529" s="1"/>
+    </row>
+    <row r="530" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D530" s="1"/>
+    </row>
+    <row r="531" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D531" s="1"/>
+    </row>
+    <row r="532" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D532" s="1"/>
+    </row>
+    <row r="533" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D533" s="1"/>
+    </row>
+    <row r="534" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D534" s="1"/>
+    </row>
+    <row r="535" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D535" s="1"/>
+    </row>
+    <row r="536" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D536" s="1"/>
+    </row>
+    <row r="537" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D537" s="1"/>
+    </row>
+    <row r="538" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D538" s="1"/>
+    </row>
+    <row r="539" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D539" s="1"/>
+    </row>
+    <row r="540" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D540" s="1"/>
+    </row>
+    <row r="541" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D541" s="1"/>
+    </row>
+    <row r="542" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D542" s="1"/>
+    </row>
+    <row r="543" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D543" s="1"/>
+    </row>
+    <row r="544" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D544" s="1"/>
+    </row>
+    <row r="545" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D545" s="1"/>
+    </row>
+    <row r="546" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D546" s="1"/>
+    </row>
+    <row r="547" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D547" s="1"/>
+    </row>
+    <row r="548" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D548" s="1"/>
+    </row>
+    <row r="549" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D549" s="1"/>
+    </row>
+    <row r="550" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D550" s="1"/>
+    </row>
+    <row r="551" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D551" s="1"/>
+    </row>
+    <row r="552" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D552" s="1"/>
+    </row>
+    <row r="553" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D553" s="1"/>
+    </row>
+    <row r="554" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D554" s="1"/>
+    </row>
+    <row r="555" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D555" s="1"/>
+    </row>
+    <row r="556" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D556" s="1"/>
+    </row>
+    <row r="557" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D557" s="1"/>
+    </row>
+    <row r="558" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D558" s="1"/>
+    </row>
+    <row r="559" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D559" s="1"/>
+    </row>
+    <row r="560" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D560" s="1"/>
+    </row>
+    <row r="561" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D561" s="1"/>
+    </row>
+    <row r="562" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D562" s="1"/>
+    </row>
+    <row r="563" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D563" s="1"/>
+    </row>
+    <row r="564" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D564" s="1"/>
+    </row>
+    <row r="565" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D565" s="1"/>
+    </row>
+    <row r="566" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D566" s="1"/>
+    </row>
+    <row r="567" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D567" s="1"/>
+    </row>
+    <row r="568" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D568" s="1"/>
+    </row>
+    <row r="569" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D569" s="1"/>
+    </row>
+    <row r="570" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D570" s="1"/>
+    </row>
+    <row r="571" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D571" s="1"/>
+    </row>
+    <row r="572" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D572" s="1"/>
+    </row>
+    <row r="573" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D573" s="1"/>
+    </row>
+    <row r="574" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D574" s="1"/>
+    </row>
+    <row r="575" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D575" s="1"/>
+    </row>
+    <row r="576" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D576" s="1"/>
+    </row>
+    <row r="577" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D577" s="1"/>
+    </row>
+    <row r="578" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D578" s="1"/>
+    </row>
+    <row r="579" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D579" s="1"/>
+    </row>
+    <row r="580" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D580" s="1"/>
+    </row>
+    <row r="581" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D581" s="1"/>
+    </row>
+    <row r="582" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D582" s="1"/>
+    </row>
+    <row r="583" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D583" s="1"/>
+    </row>
+    <row r="584" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D584" s="1"/>
+    </row>
+    <row r="585" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D585" s="1"/>
+    </row>
+    <row r="586" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D586" s="1"/>
+    </row>
+    <row r="587" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D587" s="1"/>
+    </row>
+    <row r="588" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D588" s="1"/>
+    </row>
+    <row r="589" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D589" s="1"/>
+    </row>
+    <row r="590" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D590" s="1"/>
+    </row>
+    <row r="591" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D591" s="1"/>
+    </row>
+    <row r="592" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D592" s="1"/>
+    </row>
+    <row r="593" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D593" s="1"/>
+    </row>
+    <row r="594" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D594" s="1"/>
+    </row>
+    <row r="595" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D595" s="1"/>
+    </row>
+    <row r="596" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D596" s="1"/>
+    </row>
+    <row r="597" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D597" s="1"/>
+    </row>
+    <row r="598" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D598" s="1"/>
+    </row>
+    <row r="599" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D599" s="1"/>
+    </row>
+    <row r="600" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D600" s="1"/>
+    </row>
+    <row r="601" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D601" s="1"/>
+    </row>
+    <row r="602" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D602" s="1"/>
+    </row>
+    <row r="603" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D603" s="1"/>
+    </row>
+    <row r="604" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D604" s="1"/>
+    </row>
+    <row r="605" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D605" s="1"/>
+    </row>
+    <row r="606" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D606" s="1"/>
+    </row>
+    <row r="607" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D607" s="1"/>
+    </row>
+    <row r="608" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D608" s="1"/>
+    </row>
+    <row r="609" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D609" s="1"/>
+    </row>
+    <row r="610" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D610" s="1"/>
+    </row>
+    <row r="611" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D611" s="1"/>
+    </row>
+    <row r="612" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D612" s="1"/>
+    </row>
+    <row r="613" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D613" s="1"/>
+    </row>
+    <row r="614" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D614" s="1"/>
+    </row>
+    <row r="615" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D615" s="1"/>
+    </row>
+    <row r="616" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D616" s="1"/>
+    </row>
+    <row r="617" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D617" s="1"/>
+    </row>
+    <row r="618" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D618" s="1"/>
+    </row>
+    <row r="619" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D619" s="1"/>
+    </row>
+    <row r="620" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D620" s="1"/>
+    </row>
+    <row r="621" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D621" s="1"/>
+    </row>
+    <row r="622" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D622" s="1"/>
+    </row>
+    <row r="623" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D623" s="1"/>
+    </row>
+    <row r="624" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D624" s="1"/>
+    </row>
+    <row r="625" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D625" s="1"/>
+    </row>
+    <row r="626" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D626" s="1"/>
+    </row>
+    <row r="627" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D627" s="1"/>
+    </row>
+    <row r="628" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D628" s="1"/>
+    </row>
+    <row r="629" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D629" s="1"/>
+    </row>
+    <row r="630" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D630" s="1"/>
+    </row>
+    <row r="631" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D631" s="1"/>
+    </row>
+    <row r="632" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D632" s="1"/>
+    </row>
+    <row r="633" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D633" s="1"/>
+    </row>
+    <row r="634" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D634" s="1"/>
+    </row>
+    <row r="635" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D635" s="1"/>
+    </row>
+    <row r="636" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D636" s="1"/>
+    </row>
+    <row r="637" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D637" s="1"/>
+    </row>
+    <row r="638" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D638" s="1"/>
+    </row>
+    <row r="639" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D639" s="1"/>
+    </row>
+    <row r="640" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D640" s="1"/>
+    </row>
+    <row r="641" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D641" s="1"/>
+    </row>
+    <row r="642" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D642" s="1"/>
+    </row>
+    <row r="643" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D643" s="1"/>
+    </row>
+    <row r="644" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D644" s="1"/>
+    </row>
+    <row r="645" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D645" s="1"/>
+    </row>
+    <row r="646" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D646" s="1"/>
+    </row>
+    <row r="647" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D647" s="1"/>
+    </row>
+    <row r="648" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D648" s="1"/>
+    </row>
+    <row r="649" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D649" s="1"/>
+    </row>
+    <row r="650" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D650" s="1"/>
+    </row>
+    <row r="651" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D651" s="1"/>
+    </row>
+    <row r="652" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D652" s="1"/>
+    </row>
+    <row r="653" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D653" s="1"/>
+    </row>
+    <row r="654" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D654" s="1"/>
+    </row>
+    <row r="655" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D655" s="1"/>
+    </row>
+    <row r="656" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D656" s="1"/>
+    </row>
+    <row r="657" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D657" s="1"/>
+    </row>
+    <row r="658" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D658" s="1"/>
+    </row>
+    <row r="659" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D659" s="1"/>
+    </row>
+    <row r="660" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D660" s="1"/>
+    </row>
+    <row r="661" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D661" s="1"/>
+    </row>
+    <row r="662" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D662" s="1"/>
+    </row>
+    <row r="663" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D663" s="1"/>
+    </row>
+    <row r="664" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D664" s="1"/>
+    </row>
+    <row r="665" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D665" s="1"/>
+    </row>
+    <row r="666" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D666" s="1"/>
+    </row>
+    <row r="667" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D667" s="1"/>
+    </row>
+    <row r="668" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D668" s="1"/>
+    </row>
+    <row r="669" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D669" s="1"/>
+    </row>
+    <row r="670" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D670" s="1"/>
+    </row>
+    <row r="671" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D671" s="1"/>
+    </row>
+    <row r="672" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D672" s="1"/>
+    </row>
+    <row r="673" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D673" s="1"/>
+    </row>
+    <row r="674" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D674" s="1"/>
+    </row>
+    <row r="675" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D675" s="1"/>
+    </row>
+    <row r="676" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D676" s="1"/>
+    </row>
+    <row r="677" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D677" s="1"/>
+    </row>
+    <row r="678" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D678" s="1"/>
+    </row>
+    <row r="679" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D679" s="1"/>
+    </row>
+    <row r="680" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D680" s="1"/>
+    </row>
+    <row r="681" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D681" s="1"/>
+    </row>
+    <row r="682" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D682" s="1"/>
+    </row>
+    <row r="683" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D683" s="1"/>
+    </row>
+    <row r="684" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D684" s="1"/>
+    </row>
+    <row r="685" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D685" s="1"/>
+    </row>
+    <row r="686" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D686" s="1"/>
+    </row>
+    <row r="687" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D687" s="1"/>
+    </row>
+    <row r="688" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D688" s="1"/>
+    </row>
+    <row r="689" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D689" s="1"/>
+    </row>
+    <row r="690" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D690" s="1"/>
+    </row>
+    <row r="691" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D691" s="1"/>
+    </row>
+    <row r="692" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D692" s="1"/>
+    </row>
+    <row r="693" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D693" s="1"/>
+    </row>
+    <row r="694" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D694" s="1"/>
+    </row>
+    <row r="695" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D695" s="1"/>
+    </row>
+    <row r="696" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D696" s="1"/>
+    </row>
+    <row r="697" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D697" s="1"/>
+    </row>
+    <row r="698" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D698" s="1"/>
+    </row>
+    <row r="699" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D699" s="1"/>
+    </row>
+    <row r="700" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D700" s="1"/>
+    </row>
+    <row r="701" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D701" s="1"/>
+    </row>
+    <row r="702" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D702" s="1"/>
+    </row>
+    <row r="703" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D703" s="1"/>
+    </row>
+    <row r="704" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D704" s="1"/>
+    </row>
+    <row r="705" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D705" s="1"/>
+    </row>
+    <row r="706" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D706" s="1"/>
+    </row>
+    <row r="707" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D707" s="1"/>
+    </row>
+    <row r="708" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D708" s="1"/>
+    </row>
+    <row r="709" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D709" s="1"/>
+    </row>
+    <row r="710" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D710" s="1"/>
+    </row>
+    <row r="711" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D711" s="1"/>
+    </row>
+    <row r="712" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D712" s="1"/>
+    </row>
+    <row r="713" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D713" s="1"/>
+    </row>
+    <row r="714" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D714" s="1"/>
+    </row>
+    <row r="715" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D715" s="1"/>
+    </row>
+    <row r="716" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D716" s="1"/>
+    </row>
+    <row r="717" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D717" s="1"/>
+    </row>
+    <row r="718" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D718" s="1"/>
+    </row>
+    <row r="719" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D719" s="1"/>
+    </row>
+    <row r="720" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D720" s="1"/>
+    </row>
+    <row r="721" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D721" s="1"/>
+    </row>
+    <row r="722" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D722" s="1"/>
+    </row>
+    <row r="723" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D723" s="1"/>
+    </row>
+    <row r="724" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D724" s="1"/>
+    </row>
+    <row r="725" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D725" s="1"/>
+    </row>
+    <row r="726" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D726" s="1"/>
+    </row>
+    <row r="727" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D727" s="1"/>
+    </row>
+    <row r="728" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D728" s="1"/>
+    </row>
+    <row r="729" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D729" s="1"/>
+    </row>
+    <row r="730" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D730" s="1"/>
+    </row>
+    <row r="731" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D731" s="1"/>
+    </row>
+    <row r="732" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D732" s="1"/>
+    </row>
+    <row r="733" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D733" s="1"/>
+    </row>
+    <row r="734" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D734" s="1"/>
+    </row>
+    <row r="735" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D735" s="1"/>
+    </row>
+    <row r="736" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D736" s="1"/>
+    </row>
+    <row r="737" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D737" s="1"/>
+    </row>
+    <row r="738" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D738" s="1"/>
+    </row>
+    <row r="739" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D739" s="1"/>
+    </row>
+    <row r="740" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D740" s="1"/>
+    </row>
+    <row r="741" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D741" s="1"/>
+    </row>
+    <row r="742" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D742" s="1"/>
+    </row>
+    <row r="743" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D743" s="1"/>
+    </row>
+    <row r="744" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D744" s="1"/>
+    </row>
+    <row r="745" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D745" s="1"/>
+    </row>
+    <row r="746" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D746" s="1"/>
+    </row>
+    <row r="747" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D747" s="1"/>
+    </row>
+    <row r="748" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D748" s="1"/>
+    </row>
+    <row r="749" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D749" s="1"/>
+    </row>
+    <row r="750" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D750" s="1"/>
+    </row>
+    <row r="751" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D751" s="1"/>
+    </row>
+    <row r="752" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D752" s="1"/>
+    </row>
+    <row r="753" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D753" s="1"/>
+    </row>
+    <row r="754" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D754" s="1"/>
+    </row>
+    <row r="755" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D755" s="1"/>
+    </row>
+    <row r="756" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D756" s="1"/>
+    </row>
+    <row r="757" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D757" s="1"/>
+    </row>
+    <row r="758" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D758" s="1"/>
+    </row>
+    <row r="759" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D759" s="1"/>
+    </row>
+    <row r="760" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D760" s="1"/>
+    </row>
+    <row r="761" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D761" s="1"/>
+    </row>
+    <row r="762" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D762" s="1"/>
+    </row>
+    <row r="763" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D763" s="1"/>
+    </row>
+    <row r="764" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D764" s="1"/>
+    </row>
+    <row r="765" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D765" s="1"/>
+    </row>
+    <row r="766" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D766" s="1"/>
+    </row>
+    <row r="767" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D767" s="1"/>
+    </row>
+    <row r="768" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D768" s="1"/>
+    </row>
+    <row r="769" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D769" s="1"/>
+    </row>
+    <row r="770" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D770" s="1"/>
+    </row>
+    <row r="771" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D771" s="1"/>
+    </row>
+    <row r="772" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D772" s="1"/>
+    </row>
+    <row r="773" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D773" s="1"/>
+    </row>
+    <row r="774" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D774" s="1"/>
+    </row>
+    <row r="775" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D775" s="1"/>
+    </row>
+    <row r="776" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D776" s="1"/>
+    </row>
+    <row r="777" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D777" s="1"/>
+    </row>
+    <row r="778" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D778" s="1"/>
+    </row>
+    <row r="779" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D779" s="1"/>
+    </row>
+    <row r="780" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D780" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
 </file>